--- a/va_facility_data_2025-02-20/Pontiac VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pontiac%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pontiac VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pontiac%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R80a4d0262bb3458186d85b7d003f9ab3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7234eaea90ad41e29e38bf13d22c3521"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R38fc6710f5d345dc994f6266e554714a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R23613a12024d4d84a9626726566e5e94"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R09b3205fc2014032ab9d62dbe71941e7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R76aee1c726414ab581e1336303e2004a"/>
   </x:sheets>
 </x:workbook>
 </file>
